--- a/zm.xlsx
+++ b/zm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/F1914ED8-94AF-471B-A409-D7B6E29CF6B2/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/36E1FEDB-9705-4BF5-8A9C-434A34F46592/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AF73D-44AA-CF4B-8219-781DD6E9D0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A7EB2-301D-A944-AF23-067684E446D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="2980" windowWidth="21140" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,14 +30,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="methylseq" guid="{DBE29AA5-4612-41A5-AA32-A789BF2A0694}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="stress" guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="ASE" guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="RIL" guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="dnaseq" guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="chipseq" guid="{32787278-35C0-4446-BB99-F1281F67D683}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="atacseq" guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="rnaseq" guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="atacseq" guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="chipseq" guid="{32787278-35C0-4446-BB99-F1281F67D683}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="dnaseq" guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="RIL" guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="ASE" guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="stress" guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="methylseq" guid="{DBE29AA5-4612-41A5-AA32-A789BF2A0694}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -385,9 +385,6 @@
     <t>Anderson</t>
   </si>
   <si>
-    <t>sp067</t>
-  </si>
-  <si>
     <t>cold and heat stress</t>
   </si>
   <si>
@@ -1826,6 +1823,9 @@
   </si>
   <si>
     <t>A632</t>
+  </si>
+  <si>
+    <t>sp067,sp074,sp075,sp076</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2318,8 @@
   <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3286,13 +3286,13 @@
         <v>34</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>102</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="6" t="s">
@@ -3320,7 +3320,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
@@ -3336,7 +3336,7 @@
         <v>34</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="6" t="s">
@@ -3364,7 +3364,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>2</v>
@@ -3380,7 +3380,7 @@
         <v>34</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3389,10 +3389,10 @@
         <v>59</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="6" t="s">
@@ -3412,10 +3412,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
@@ -3428,7 +3428,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -3436,11 +3436,11 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3454,14 +3454,14 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="8">
         <v>2019</v>
@@ -3470,14 +3470,14 @@
         <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="9"/>
@@ -3498,14 +3498,14 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="8">
         <v>2019</v>
@@ -3522,7 +3522,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3536,14 +3536,14 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="8">
         <v>2019</v>
@@ -3552,14 +3552,14 @@
         <v>40</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" s="8">
         <v>3</v>
@@ -3584,14 +3584,14 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="8">
         <v>2019</v>
@@ -3608,7 +3608,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P29" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3622,16 +3622,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="8">
         <v>2012</v>
@@ -3640,16 +3640,16 @@
         <v>40</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="9"/>
@@ -3672,16 +3672,16 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E31" s="8">
         <v>2012</v>
@@ -3690,13 +3690,13 @@
         <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>50</v>
@@ -3722,16 +3722,16 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E32" s="8">
         <v>2014</v>
@@ -3740,16 +3740,16 @@
         <v>40</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="9"/>
@@ -3772,16 +3772,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E33" s="8">
         <v>2015</v>
@@ -3790,16 +3790,16 @@
         <v>40</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="J33" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="9"/>
@@ -3822,16 +3822,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="8">
         <v>2015</v>
@@ -3840,13 +3840,13 @@
         <v>40</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>50</v>
@@ -3872,16 +3872,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E35" s="8">
         <v>206</v>
@@ -3890,16 +3890,16 @@
         <v>40</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="9"/>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" s="8">
         <v>2018</v>
@@ -3940,13 +3940,13 @@
         <v>40</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>50</v>
@@ -3972,16 +3972,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="8">
         <v>2018</v>
@@ -3990,16 +3990,16 @@
         <v>40</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="9"/>
@@ -4022,16 +4022,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E38" s="8">
         <v>2019</v>
@@ -4040,16 +4040,16 @@
         <v>40</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="9"/>
@@ -4072,14 +4072,14 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E39" s="8">
         <v>2020</v>
@@ -4088,13 +4088,13 @@
         <v>40</v>
       </c>
       <c r="G39" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>582</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>583</v>
       </c>
       <c r="J39" s="21" t="s">
         <v>102</v>
@@ -4120,14 +4120,14 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8">
         <v>2016</v>
@@ -4136,11 +4136,11 @@
         <v>40</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="7"/>
@@ -4162,16 +4162,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="E41" s="8">
         <v>2018</v>
@@ -4180,14 +4180,14 @@
         <v>40</v>
       </c>
       <c r="G41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="9"/>
@@ -4210,14 +4210,14 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="8">
         <v>2020</v>
@@ -4250,16 +4250,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="E43" s="8">
         <v>2012</v>
@@ -4268,10 +4268,10 @@
         <v>40</v>
       </c>
       <c r="G43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="9"/>
@@ -4296,16 +4296,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="E44" s="8">
         <v>2012</v>
@@ -4314,10 +4314,10 @@
         <v>40</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="9"/>
@@ -4342,16 +4342,16 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E45" s="8">
         <v>2014</v>
@@ -4360,10 +4360,10 @@
         <v>40</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="9"/>
@@ -4388,16 +4388,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E46" s="8">
         <v>2015</v>
@@ -4406,13 +4406,13 @@
         <v>40</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="8">
@@ -4436,7 +4436,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>9</v>
@@ -4452,10 +4452,10 @@
         <v>34</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="7"/>
@@ -4477,14 +4477,14 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E48" s="8">
         <v>2016</v>
@@ -4493,13 +4493,13 @@
         <v>40</v>
       </c>
       <c r="G48" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="8">
@@ -4523,16 +4523,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E49" s="8">
         <v>2017</v>
@@ -4541,10 +4541,10 @@
         <v>40</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="9"/>
@@ -4569,16 +4569,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="8">
         <v>2017</v>
@@ -4587,10 +4587,10 @@
         <v>40</v>
       </c>
       <c r="G50" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="9"/>
@@ -4615,16 +4615,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="E51" s="8">
         <v>2018</v>
@@ -4633,13 +4633,13 @@
         <v>34</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="8">
@@ -4663,16 +4663,16 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" s="8">
         <v>2019</v>
@@ -4681,10 +4681,10 @@
         <v>40</v>
       </c>
       <c r="G52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="9"/>
@@ -4709,14 +4709,14 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E53" s="8">
         <v>2021</v>
@@ -4726,10 +4726,10 @@
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>590</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="8"/>
@@ -4751,16 +4751,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E54" s="8">
         <v>2012</v>
@@ -4769,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -4795,16 +4795,16 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E55" s="8">
         <v>2012</v>
@@ -4813,7 +4813,7 @@
         <v>40</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -4839,16 +4839,16 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E56" s="8">
         <v>2014</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E57" s="8">
         <v>2015</v>
@@ -4923,16 +4923,16 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="8">
         <v>2015</v>
@@ -4965,16 +4965,16 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" s="8">
         <v>2016</v>
@@ -5007,16 +5007,16 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="E60" s="8">
         <v>2016</v>
@@ -5025,7 +5025,7 @@
         <v>40</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -5051,16 +5051,16 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="8">
         <v>2018</v>
@@ -5093,16 +5093,16 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="8">
         <v>2018</v>
@@ -5135,16 +5135,16 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E63" s="8">
         <v>2019</v>
@@ -5155,7 +5155,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="7"/>
       <c r="I63" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="7"/>
@@ -5179,14 +5179,14 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" s="8">
         <v>2010</v>
@@ -5195,10 +5195,10 @@
         <v>40</v>
       </c>
       <c r="G64" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>80</v>
@@ -5229,14 +5229,14 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="8">
         <v>2011</v>
@@ -5245,16 +5245,16 @@
         <v>40</v>
       </c>
       <c r="G65" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K65" s="8">
         <v>12</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>2</v>
@@ -5295,16 +5295,16 @@
         <v>40</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K66" s="8">
         <v>4</v>
@@ -5327,14 +5327,14 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67" s="8">
         <v>2013</v>
@@ -5343,16 +5343,16 @@
         <v>40</v>
       </c>
       <c r="G67" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="J67" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="K67" s="8">
         <v>107</v>
@@ -5360,7 +5360,7 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>2</v>
@@ -5379,14 +5379,14 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E68" s="8">
         <v>2013</v>
@@ -5395,16 +5395,16 @@
         <v>40</v>
       </c>
       <c r="G68" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K68" s="8">
         <v>22</v>
@@ -5429,14 +5429,14 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E69" s="8">
         <v>2013</v>
@@ -5445,16 +5445,16 @@
         <v>40</v>
       </c>
       <c r="G69" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="K69" s="8">
         <v>62</v>
@@ -5479,14 +5479,14 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E70" s="8">
         <v>2013</v>
@@ -5495,13 +5495,13 @@
         <v>40</v>
       </c>
       <c r="G70" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>50</v>
@@ -5527,14 +5527,14 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E71" s="8">
         <v>2013</v>
@@ -5543,16 +5543,16 @@
         <v>40</v>
       </c>
       <c r="G71" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K71" s="8">
         <v>368</v>
@@ -5575,14 +5575,14 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E72" s="8">
         <v>2013</v>
@@ -5591,13 +5591,13 @@
         <v>40</v>
       </c>
       <c r="G72" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>50</v>
@@ -5606,7 +5606,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -5625,14 +5625,14 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E73" s="8">
         <v>2014</v>
@@ -5641,16 +5641,16 @@
         <v>40</v>
       </c>
       <c r="G73" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="J73" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K73" s="8">
         <v>503</v>
@@ -5673,14 +5673,14 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74" s="8">
         <v>2014</v>
@@ -5689,10 +5689,10 @@
         <v>40</v>
       </c>
       <c r="G74" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>80</v>
@@ -5721,14 +5721,14 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E75" s="8">
         <v>2014</v>
@@ -5737,16 +5737,16 @@
         <v>40</v>
       </c>
       <c r="G75" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K75" s="8">
         <v>4</v>
@@ -5769,14 +5769,14 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E76" s="8">
         <v>2014</v>
@@ -5785,16 +5785,16 @@
         <v>40</v>
       </c>
       <c r="G76" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K76" s="8">
         <v>53</v>
@@ -5817,14 +5817,14 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E77" s="8">
         <v>2014</v>
@@ -5833,25 +5833,25 @@
         <v>40</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K77" s="8">
         <v>27</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N77" s="9"/>
       <c r="O77" s="6" t="s">
@@ -5871,14 +5871,14 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E78" s="8">
         <v>2014</v>
@@ -5887,20 +5887,20 @@
         <v>40</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="K78" s="8">
         <v>16</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -5918,14 +5918,14 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E79" s="8">
         <v>2015</v>
@@ -5934,16 +5934,16 @@
         <v>40</v>
       </c>
       <c r="G79" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="H79" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="J79" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K79" s="8">
         <v>380</v>
@@ -5965,14 +5965,14 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E80" s="8">
         <v>2015</v>
@@ -5981,16 +5981,16 @@
         <v>40</v>
       </c>
       <c r="G80" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="K80" s="8">
         <v>8</v>
@@ -6012,14 +6012,14 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E81" s="8">
         <v>2016</v>
@@ -6028,16 +6028,16 @@
         <v>40</v>
       </c>
       <c r="G81" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="J81" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K81" s="8">
         <v>102</v>
@@ -6045,7 +6045,7 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>2</v>
@@ -6061,14 +6061,14 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E82" s="8">
         <v>2015</v>
@@ -6077,16 +6077,16 @@
         <v>40</v>
       </c>
       <c r="G82" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I82" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="J82" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K82" s="8">
         <v>106</v>
@@ -6094,7 +6094,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>2</v>
@@ -6113,14 +6113,14 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E83" s="8">
         <v>2016</v>
@@ -6129,23 +6129,23 @@
         <v>40</v>
       </c>
       <c r="G83" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="J83" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="K83" s="8">
         <v>8</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N83" s="9"/>
       <c r="O83" s="6" t="s">
@@ -6163,14 +6163,14 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E84" s="8">
         <v>2015</v>
@@ -6179,13 +6179,13 @@
         <v>40</v>
       </c>
       <c r="G84" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>102</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N84" s="9"/>
       <c r="O84" s="6" t="s">
@@ -6213,14 +6213,14 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E85" s="8">
         <v>2015</v>
@@ -6229,16 +6229,16 @@
         <v>40</v>
       </c>
       <c r="G85" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H85" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="J85" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="K85" s="8">
         <v>24</v>
@@ -6261,14 +6261,14 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E86" s="8">
         <v>2016</v>
@@ -6277,16 +6277,16 @@
         <v>40</v>
       </c>
       <c r="G86" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K86" s="8">
         <v>94</v>
@@ -6311,14 +6311,14 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E87" s="8">
         <v>2016</v>
@@ -6327,16 +6327,16 @@
         <v>40</v>
       </c>
       <c r="G87" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K87" s="8">
         <v>23</v>
@@ -6361,14 +6361,14 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E88" s="8">
         <v>2017</v>
@@ -6377,16 +6377,16 @@
         <v>40</v>
       </c>
       <c r="G88" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="J88" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="K88" s="8">
         <v>133</v>
@@ -6409,14 +6409,14 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E89" s="8">
         <v>2017</v>
@@ -6425,25 +6425,25 @@
         <v>34</v>
       </c>
       <c r="G89" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="H89" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="J89" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K89" s="8">
         <v>15</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="6" t="s">
@@ -6463,14 +6463,14 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E90" s="8">
         <v>2017</v>
@@ -6479,25 +6479,25 @@
         <v>40</v>
       </c>
       <c r="G90" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="I90" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J90" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="K90" s="8">
         <v>8</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N90" s="9"/>
       <c r="O90" s="6" t="s">
@@ -6517,7 +6517,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>2</v>
@@ -6533,23 +6533,23 @@
         <v>40</v>
       </c>
       <c r="G91" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="J91" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="K91" s="8">
         <v>6</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N91" s="9"/>
       <c r="O91" s="6" t="s">
@@ -6569,7 +6569,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>2</v>
@@ -6585,23 +6585,23 @@
         <v>34</v>
       </c>
       <c r="G92" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="J92" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="K92" s="8">
         <v>50</v>
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N92" s="9"/>
       <c r="O92" s="6" t="s">
@@ -6621,14 +6621,14 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E93" s="8">
         <v>2018</v>
@@ -6637,16 +6637,16 @@
         <v>40</v>
       </c>
       <c r="G93" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="J93" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="K93" s="8">
         <v>1781</v>
@@ -6669,14 +6669,14 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E94" s="8">
         <v>2018</v>
@@ -6685,22 +6685,22 @@
         <v>40</v>
       </c>
       <c r="G94" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="J94" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="K94" s="8">
         <v>46</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -6719,14 +6719,14 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E95" s="8">
         <v>2018</v>
@@ -6735,16 +6735,16 @@
         <v>40</v>
       </c>
       <c r="G95" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="J95" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="K95" s="8">
         <v>623</v>
@@ -6752,7 +6752,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>2</v>
@@ -6769,14 +6769,14 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E96" s="8">
         <v>2018</v>
@@ -6785,16 +6785,16 @@
         <v>40</v>
       </c>
       <c r="G96" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="J96" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K96" s="8">
         <v>48</v>
@@ -6817,14 +6817,14 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E97" s="8">
         <v>2018</v>
@@ -6834,13 +6834,13 @@
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I97" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="J97" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="K97" s="8">
         <v>1136</v>
@@ -6863,14 +6863,14 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E98" s="8">
         <v>2018</v>
@@ -6879,16 +6879,16 @@
         <v>40</v>
       </c>
       <c r="G98" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H98" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K98" s="8">
         <v>20</v>
@@ -6911,14 +6911,14 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E99" s="8">
         <v>2018</v>
@@ -6927,22 +6927,22 @@
         <v>34</v>
       </c>
       <c r="G99" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="I99" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K99" s="8">
         <v>90</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -6963,14 +6963,14 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E100" s="8">
         <v>2018</v>
@@ -6979,16 +6979,16 @@
         <v>40</v>
       </c>
       <c r="G100" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="J100" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K100" s="8">
         <v>282</v>
@@ -7011,14 +7011,14 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E101" s="8">
         <v>2020</v>
@@ -7027,16 +7027,16 @@
         <v>34</v>
       </c>
       <c r="G101" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H101" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="J101" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="K101" s="8">
         <v>30</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>2</v>
@@ -7073,16 +7073,16 @@
         <v>34</v>
       </c>
       <c r="G102" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="I102" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="J102" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="K102" s="8">
         <v>30</v>
@@ -7105,14 +7105,14 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E103" s="8">
         <v>2018</v>
@@ -7121,13 +7121,13 @@
         <v>40</v>
       </c>
       <c r="G103" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>102</v>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="L103" s="9"/>
       <c r="M103" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N103" s="9"/>
       <c r="O103" s="6" t="s">
@@ -7157,14 +7157,14 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E104" s="8">
         <v>2018</v>
@@ -7173,20 +7173,20 @@
         <v>40</v>
       </c>
       <c r="G104" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="H104" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="I104" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="J104" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -7207,14 +7207,14 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E105" s="8">
         <v>2019</v>
@@ -7223,16 +7223,16 @@
         <v>40</v>
       </c>
       <c r="G105" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H105" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="J105" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="K105" s="8">
         <v>453</v>
@@ -7257,14 +7257,14 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E106" s="8">
         <v>2019</v>
@@ -7273,16 +7273,16 @@
         <v>40</v>
       </c>
       <c r="G106" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K106" s="8">
         <v>7</v>
@@ -7305,14 +7305,14 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E107" s="8">
         <v>2019</v>
@@ -7321,16 +7321,16 @@
         <v>40</v>
       </c>
       <c r="G107" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K107" s="8">
         <v>31</v>
@@ -7353,14 +7353,14 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E108" s="8">
         <v>2019</v>
@@ -7369,23 +7369,23 @@
         <v>40</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K108" s="8">
         <v>21</v>
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N108" s="9"/>
       <c r="O108" s="6" t="s">
@@ -7405,14 +7405,14 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E109" s="8">
         <v>2020</v>
@@ -7429,7 +7429,7 @@
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P109" s="10" t="str">
         <f t="shared" si="6"/>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>2</v>
@@ -7459,23 +7459,23 @@
         <v>34</v>
       </c>
       <c r="G110" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K110" s="8">
         <v>18</v>
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N110" s="9"/>
       <c r="O110" s="6" t="s">
@@ -7495,14 +7495,14 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E111" s="8">
         <v>2019</v>
@@ -7511,14 +7511,14 @@
         <v>40</v>
       </c>
       <c r="G111" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K111" s="8">
         <v>10</v>
@@ -7543,14 +7543,14 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E112" s="8">
         <v>2019</v>
@@ -7559,10 +7559,10 @@
         <v>40</v>
       </c>
       <c r="G112" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>80</v>
@@ -7593,14 +7593,14 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E113" s="8">
         <v>2019</v>
@@ -7610,11 +7610,11 @@
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K113" s="8">
         <v>942</v>
@@ -7637,14 +7637,14 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E114" s="8">
         <v>2019</v>
@@ -7654,11 +7654,11 @@
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I114" s="21"/>
       <c r="J114" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K114" s="8">
         <v>304</v>
@@ -7681,14 +7681,14 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E115" s="8">
         <v>2020</v>
@@ -7697,13 +7697,13 @@
         <v>34</v>
       </c>
       <c r="G115" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>102</v>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="L115" s="9"/>
       <c r="M115" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N115" s="9"/>
       <c r="O115" s="6" t="s">
@@ -7733,14 +7733,14 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E116" s="8">
         <v>2020</v>
@@ -7749,17 +7749,17 @@
         <v>34</v>
       </c>
       <c r="G116" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="7"/>
       <c r="L116" s="9"/>
       <c r="M116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N116" s="9"/>
       <c r="O116" s="6" t="s">
@@ -7779,14 +7779,14 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E117" s="8">
         <v>2020</v>
@@ -7795,7 +7795,7 @@
         <v>34</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="5" t="s">
@@ -7807,7 +7807,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="9"/>
       <c r="M117" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N117" s="9"/>
       <c r="O117" s="6" t="s">
@@ -7825,14 +7825,14 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E118" s="8">
         <v>2020</v>
@@ -7841,20 +7841,20 @@
         <v>34</v>
       </c>
       <c r="G118" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>60</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>2</v>
@@ -7887,13 +7887,13 @@
         <v>34</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>102</v>
@@ -7902,7 +7902,7 @@
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O119" s="6" t="s">
         <v>2</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>2</v>
@@ -7935,16 +7935,16 @@
         <v>40</v>
       </c>
       <c r="G120" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="I120" s="5" t="s">
-        <v>505</v>
-      </c>
       <c r="J120" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K120" s="8">
         <v>250</v>
@@ -7969,14 +7969,14 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E121" s="8">
         <v>2019</v>
@@ -7986,13 +7986,13 @@
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I121" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="J121" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="K121" s="8">
         <v>636</v>
@@ -8017,14 +8017,14 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E122" s="8">
         <v>2019</v>
@@ -8033,10 +8033,10 @@
         <v>40</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -8045,7 +8045,7 @@
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P122" s="10" t="str">
         <f t="shared" si="6"/>
@@ -8059,14 +8059,14 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123" s="8">
         <v>2019</v>
@@ -8075,22 +8075,22 @@
         <v>34</v>
       </c>
       <c r="G123" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I123" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="H123" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>514</v>
-      </c>
       <c r="J123" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K123" s="8">
         <v>467</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>2</v>
@@ -8127,13 +8127,13 @@
         <v>34</v>
       </c>
       <c r="G124" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I124" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>50</v>
@@ -8142,7 +8142,7 @@
         <v>6</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
@@ -8163,14 +8163,14 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E125" s="8">
         <v>2020</v>
@@ -8179,16 +8179,16 @@
         <v>40</v>
       </c>
       <c r="G125" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="9"/>
@@ -8211,14 +8211,14 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E126" s="8">
         <v>2020</v>
@@ -8227,16 +8227,16 @@
         <v>40</v>
       </c>
       <c r="G126" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K126" s="5">
         <v>4</v>
@@ -8261,14 +8261,14 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E127" s="8">
         <v>2020</v>
@@ -8277,13 +8277,13 @@
         <v>34</v>
       </c>
       <c r="G127" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="I127" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="7"/>
@@ -8307,14 +8307,14 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E128" s="8">
         <v>2020</v>
@@ -8323,16 +8323,16 @@
         <v>40</v>
       </c>
       <c r="G128" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H128" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="9"/>
@@ -8355,14 +8355,14 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E129" s="8">
         <v>2020</v>
@@ -8372,19 +8372,19 @@
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I129" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="J129" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="K129" s="5">
         <v>27</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
@@ -8405,14 +8405,14 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B130" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="21"/>
       <c r="D130" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E130" s="8">
         <v>2020</v>
@@ -8421,21 +8421,21 @@
         <v>40</v>
       </c>
       <c r="G130" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="I130" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="H130" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="I130" s="21" t="s">
-        <v>586</v>
-      </c>
       <c r="J130" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K130" s="21"/>
       <c r="L130" s="21"/>
       <c r="M130" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N130" s="21"/>
       <c r="O130" s="21" t="s">
@@ -8453,10 +8453,10 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="5"/>
@@ -8468,10 +8468,10 @@
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>81</v>
@@ -8479,7 +8479,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="9"/>
       <c r="M131" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N131" s="9"/>
       <c r="O131" s="5" t="s">
@@ -8497,14 +8497,14 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E132" s="8">
         <v>2019</v>
@@ -8513,10 +8513,10 @@
         <v>40</v>
       </c>
       <c r="G132" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H132" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -8525,7 +8525,7 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
       <c r="O132" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P132" s="10" t="str">
         <f t="shared" si="6"/>
@@ -8539,20 +8539,50 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="11">
+          <filters>
+            <filter val="T"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{32787278-35C0-4446-BB99-F1281F67D683}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="14">
           <filters>
-            <filter val="rnaseq"/>
+            <filter val="chipseq"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="13">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="atacseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="dnaseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="12">
           <filters>
             <filter val="T"/>
           </filters>
@@ -8569,52 +8599,22 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="12">
+        <filterColumn colId="13">
           <filters>
             <filter val="T"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="14">
           <filters>
-            <filter val="dnaseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="atacseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{32787278-35C0-4446-BB99-F1281F67D683}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="chipseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="11">
-          <filters>
-            <filter val="T"/>
+            <filter val="rnaseq"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -8874,7 +8874,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>29</v>
@@ -8883,22 +8883,22 @@
         <v>30</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>HYPERLINK("https://github.com/orionzhou/barn/tree/master/data/15_read_list/rn18g.tsv","rn18g")</f>
@@ -8919,17 +8919,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>HYPERLINK("https://github.com/orionzhou/barn/tree/master/data/15_read_list/rn20b.tsv","rn20b")</f>
@@ -8950,14 +8950,14 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>102</v>
@@ -8996,7 +8996,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>29</v>
@@ -9005,24 +9005,24 @@
         <v>30</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" s="12" t="str">
         <f>HYPERLINK("https://github.com/orionzhou/barn/tree/master/data/15_read_list/rn17b.tsv","rn17b")</f>
@@ -9043,19 +9043,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F8" s="20" t="str">
         <f>HYPERLINK("https://github.com/orionzhou/barn/tree/master/data/15_read_list/rn18g.tsv","rn18g")</f>
@@ -9076,19 +9076,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>HYPERLINK("https://github.com/orionzhou/barn/tree/master/data/15_read_list/rn20d3.tsv","rn20d3")</f>
@@ -9159,62 +9159,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -9223,10 +9223,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -9235,7 +9235,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
@@ -9252,12 +9252,12 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -9267,7 +9267,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F9" s="9"/>
     </row>

--- a/zm.xlsx
+++ b/zm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/36E1FEDB-9705-4BF5-8A9C-434A34F46592/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/32A6340D-23B2-432C-B341-52A8AB0CFD3B/192.168.1.19/datalus/weiyu/projects/barn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A7EB2-301D-A944-AF23-067684E446D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A669BC82-816C-834E-B32E-D8FCFAE4657A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="2980" windowWidth="21140" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,14 +30,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="rnaseq" guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="atacseq" guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="chipseq" guid="{32787278-35C0-4446-BB99-F1281F67D683}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="dnaseq" guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="RIL" guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="ASE" guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="stress" guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="methylseq" guid="{DBE29AA5-4612-41A5-AA32-A789BF2A0694}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="stress" guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="ASE" guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="RIL" guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="dnaseq" guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="chipseq" guid="{32787278-35C0-4446-BB99-F1281F67D683}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="atacseq" guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="rnaseq" guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1684,9 +1684,6 @@
     <t>cg20a</t>
   </si>
   <si>
-    <t>cageseeq</t>
-  </si>
-  <si>
     <t>cage</t>
   </si>
   <si>
@@ -1826,6 +1823,9 @@
   </si>
   <si>
     <t>sp067,sp074,sp075,sp076</t>
+  </si>
+  <si>
+    <t>cageseq</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2318,8 @@
   <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3286,7 +3286,7 @@
         <v>34</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>110</v>
@@ -4072,14 +4072,14 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E39" s="8">
         <v>2020</v>
@@ -4088,13 +4088,13 @@
         <v>40</v>
       </c>
       <c r="G39" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>581</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>582</v>
       </c>
       <c r="J39" s="21" t="s">
         <v>102</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>9</v>
@@ -4726,10 +4726,10 @@
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>588</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>589</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="8"/>
@@ -7593,14 +7593,14 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E113" s="8">
         <v>2019</v>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21" t="s">
@@ -7637,14 +7637,14 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E114" s="8">
         <v>2019</v>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I114" s="21"/>
       <c r="J114" s="21" t="s">
@@ -8405,7 +8405,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B130" s="21" t="s">
         <v>2</v>
@@ -8421,13 +8421,13 @@
         <v>40</v>
       </c>
       <c r="G130" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="I130" s="21" t="s">
         <v>584</v>
-      </c>
-      <c r="H130" s="21" t="s">
-        <v>586</v>
-      </c>
-      <c r="I130" s="21" t="s">
-        <v>585</v>
       </c>
       <c r="J130" s="21" t="s">
         <v>386</v>
@@ -8452,28 +8452,28 @@
       <c r="R130" s="11"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21">
+        <v>2020</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="8">
-        <v>2020</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="J131" s="5" t="s">
+      <c r="I131" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="J131" s="21" t="s">
         <v>81</v>
       </c>
       <c r="K131" s="7"/>
@@ -8497,14 +8497,14 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E132" s="8">
         <v>2019</v>
@@ -8513,10 +8513,10 @@
         <v>40</v>
       </c>
       <c r="G132" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H132" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -8525,7 +8525,7 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
       <c r="O132" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P132" s="10" t="str">
         <f t="shared" si="6"/>
@@ -8539,50 +8539,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="11">
+        <filterColumn colId="14">
           <filters>
-            <filter val="T"/>
+            <filter val="rnaseq"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{32787278-35C0-4446-BB99-F1281F67D683}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="chipseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="atacseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="dnaseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="12">
+        <filterColumn colId="13">
           <filters>
             <filter val="T"/>
           </filters>
@@ -8599,22 +8569,52 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="13">
+        <filterColumn colId="12">
           <filters>
             <filter val="T"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="14">
           <filters>
-            <filter val="rnaseq"/>
+            <filter val="dnaseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="atacseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{32787278-35C0-4446-BB99-F1281F67D683}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="chipseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="11">
+          <filters>
+            <filter val="T"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -8625,37 +8625,37 @@
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"rnaseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"chipseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"dnaseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"dapseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"methylseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"atacseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B132 O2:O132">
+  <conditionalFormatting sqref="B1:B130 O2:O132 B132">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"smrnaseq"</formula>
     </cfRule>
@@ -8874,7 +8874,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>29</v>
@@ -8883,7 +8883,7 @@
         <v>30</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8923,13 +8923,13 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>498</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>HYPERLINK("https://github.com/orionzhou/barn/tree/master/data/15_read_list/rn20b.tsv","rn20b")</f>
@@ -8996,7 +8996,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>29</v>
@@ -9005,7 +9005,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9013,7 +9013,7 @@
         <v>379</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>110</v>
@@ -9046,7 +9046,7 @@
         <v>429</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>432</v>
@@ -9079,7 +9079,7 @@
         <v>511</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>238</v>
@@ -9159,22 +9159,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9185,16 +9185,16 @@
         <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9205,16 +9205,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>565</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -9223,10 +9223,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -9235,7 +9235,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
@@ -9252,12 +9252,12 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -9267,7 +9267,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F9" s="9"/>
     </row>
